--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Apoe-Ldlr.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H2">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J2">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N2">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O2">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P2">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q2">
-        <v>176.618374046707</v>
+        <v>375.7931769145077</v>
       </c>
       <c r="R2">
-        <v>176.618374046707</v>
+        <v>3382.138592230569</v>
       </c>
       <c r="S2">
-        <v>0.003709481763098357</v>
+        <v>0.006303925134354305</v>
       </c>
       <c r="T2">
-        <v>0.003709481763098357</v>
+        <v>0.006303925134354304</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H3">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J3">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N3">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O3">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P3">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q3">
-        <v>466.0180771520317</v>
+        <v>890.1365009035708</v>
       </c>
       <c r="R3">
-        <v>466.0180771520317</v>
+        <v>8011.228508132138</v>
       </c>
       <c r="S3">
-        <v>0.009787688103234783</v>
+        <v>0.01493202699188119</v>
       </c>
       <c r="T3">
-        <v>0.009787688103234783</v>
+        <v>0.01493202699188119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H4">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J4">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N4">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O4">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P4">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q4">
-        <v>786.9272764093892</v>
+        <v>1907.216002754127</v>
       </c>
       <c r="R4">
-        <v>786.9272764093892</v>
+        <v>17164.94402478714</v>
       </c>
       <c r="S4">
-        <v>0.01652768233475715</v>
+        <v>0.03199352099769413</v>
       </c>
       <c r="T4">
-        <v>0.01652768233475715</v>
+        <v>0.03199352099769413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.155710426632</v>
+        <v>156.656447</v>
       </c>
       <c r="H5">
-        <v>82.155710426632</v>
+        <v>469.969341</v>
       </c>
       <c r="I5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="J5">
-        <v>0.03911723695233592</v>
+        <v>0.0671576211124673</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N5">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O5">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P5">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q5">
-        <v>432.9128200459887</v>
+        <v>830.2926937732576</v>
       </c>
       <c r="R5">
-        <v>432.9128200459887</v>
+        <v>7472.634243959319</v>
       </c>
       <c r="S5">
-        <v>0.009092384751245632</v>
+        <v>0.01392814798853767</v>
       </c>
       <c r="T5">
-        <v>0.009092384751245632</v>
+        <v>0.01392814798853767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H6">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J6">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N6">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O6">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P6">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q6">
-        <v>90.43617855444735</v>
+        <v>101.4724368947427</v>
       </c>
       <c r="R6">
-        <v>90.43617855444735</v>
+        <v>913.2519320526841</v>
       </c>
       <c r="S6">
-        <v>0.001899413675857492</v>
+        <v>0.001702198668525784</v>
       </c>
       <c r="T6">
-        <v>0.001899413675857492</v>
+        <v>0.001702198668525784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H7">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J7">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N7">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O7">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P7">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q7">
-        <v>238.6212321475459</v>
+        <v>240.3564659083559</v>
       </c>
       <c r="R7">
-        <v>238.6212321475459</v>
+        <v>2163.208193175204</v>
       </c>
       <c r="S7">
-        <v>0.005011715874506345</v>
+        <v>0.00403197625642086</v>
       </c>
       <c r="T7">
-        <v>0.005011715874506345</v>
+        <v>0.00403197625642086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H8">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J8">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N8">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O8">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P8">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q8">
-        <v>402.9404984778329</v>
+        <v>514.9903387632268</v>
       </c>
       <c r="R8">
-        <v>402.9404984778329</v>
+        <v>4634.913048869041</v>
       </c>
       <c r="S8">
-        <v>0.00846288184219161</v>
+        <v>0.008638955521051697</v>
       </c>
       <c r="T8">
-        <v>0.00846288184219161</v>
+        <v>0.008638955521051695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>42.0672454806176</v>
+        <v>42.300692</v>
       </c>
       <c r="H9">
-        <v>42.0672454806176</v>
+        <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="J9">
-        <v>0.02002970214550016</v>
+        <v>0.01813403725498241</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N9">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O9">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P9">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q9">
-        <v>221.6699213969371</v>
+        <v>224.1973195597427</v>
       </c>
       <c r="R9">
-        <v>221.6699213969371</v>
+        <v>2017.775876037684</v>
       </c>
       <c r="S9">
-        <v>0.004655690752944713</v>
+        <v>0.003760906808984066</v>
       </c>
       <c r="T9">
-        <v>0.004655690752944713</v>
+        <v>0.003760906808984066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H10">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J10">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N10">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O10">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P10">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q10">
-        <v>4204.348093137896</v>
+        <v>5061.999521083515</v>
       </c>
       <c r="R10">
-        <v>4204.348093137896</v>
+        <v>45557.99568975164</v>
       </c>
       <c r="S10">
-        <v>0.08830311490178257</v>
+        <v>0.08491496911426735</v>
       </c>
       <c r="T10">
-        <v>0.08830311490178257</v>
+        <v>0.08491496911426732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H11">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J11">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N11">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O11">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P11">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q11">
-        <v>11093.42232719113</v>
+        <v>11990.29364574629</v>
       </c>
       <c r="R11">
-        <v>11093.42232719113</v>
+        <v>107912.6428117166</v>
       </c>
       <c r="S11">
-        <v>0.2329930169223573</v>
+        <v>0.201137003344008</v>
       </c>
       <c r="T11">
-        <v>0.2329930169223573</v>
+        <v>0.201137003344008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H12">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J12">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N12">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O12">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P12">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q12">
-        <v>18732.57078640681</v>
+        <v>25690.53161585355</v>
       </c>
       <c r="R12">
-        <v>18732.57078640681</v>
+        <v>231214.7845426819</v>
       </c>
       <c r="S12">
-        <v>0.3934365837257049</v>
+        <v>0.430958298119784</v>
       </c>
       <c r="T12">
-        <v>0.3934365837257049</v>
+        <v>0.4309582981197839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1955.69235837974</v>
+        <v>2110.189616</v>
       </c>
       <c r="H13">
-        <v>1955.69235837974</v>
+        <v>6330.568848</v>
       </c>
       <c r="I13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651427</v>
       </c>
       <c r="J13">
-        <v>0.9311742420745218</v>
+        <v>0.9046248489651426</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N13">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O13">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P13">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q13">
-        <v>10305.36148506253</v>
+        <v>11184.18714450352</v>
       </c>
       <c r="R13">
-        <v>10305.36148506253</v>
+        <v>100657.6843005316</v>
       </c>
       <c r="S13">
-        <v>0.216441526524677</v>
+        <v>0.1876145783870835</v>
       </c>
       <c r="T13">
-        <v>0.216441526524677</v>
+        <v>0.1876145783870834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H14">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J14">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.14980033803534</v>
+        <v>2.398836333333334</v>
       </c>
       <c r="N14">
-        <v>2.14980033803534</v>
+        <v>7.196509000000001</v>
       </c>
       <c r="O14">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633866</v>
       </c>
       <c r="P14">
-        <v>0.09482985129083465</v>
+        <v>0.09386760623633865</v>
       </c>
       <c r="Q14">
-        <v>43.70086890630258</v>
+        <v>56.4240912812169</v>
       </c>
       <c r="R14">
-        <v>43.70086890630258</v>
+        <v>507.8168215309521</v>
       </c>
       <c r="S14">
-        <v>0.0009178409500962334</v>
+        <v>0.0009465133191912221</v>
       </c>
       <c r="T14">
-        <v>0.0009178409500962334</v>
+        <v>0.0009465133191912218</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H15">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J15">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.67237596427582</v>
+        <v>5.682092999999999</v>
       </c>
       <c r="N15">
-        <v>5.67237596427582</v>
+        <v>17.046279</v>
       </c>
       <c r="O15">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="P15">
-        <v>0.2502141987983715</v>
+        <v>0.2223430006085962</v>
       </c>
       <c r="Q15">
-        <v>115.3073399498202</v>
+        <v>133.651024726168</v>
       </c>
       <c r="R15">
-        <v>115.3073399498202</v>
+        <v>1202.859222535512</v>
       </c>
       <c r="S15">
-        <v>0.002421777898273067</v>
+        <v>0.002241994016286177</v>
       </c>
       <c r="T15">
-        <v>0.002421777898273067</v>
+        <v>0.002241994016286177</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H16">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J16">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.57848544334777</v>
+        <v>12.17451333333334</v>
       </c>
       <c r="N16">
-        <v>9.57848544334777</v>
+        <v>36.52354</v>
       </c>
       <c r="O16">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="P16">
-        <v>0.4225166096188239</v>
+        <v>0.4763944950360188</v>
       </c>
       <c r="Q16">
-        <v>194.7102385625299</v>
+        <v>286.362117364569</v>
       </c>
       <c r="R16">
-        <v>194.7102385625299</v>
+        <v>2577.259056281121</v>
       </c>
       <c r="S16">
-        <v>0.004089461716170191</v>
+        <v>0.004803720397489029</v>
       </c>
       <c r="T16">
-        <v>0.004089461716170191</v>
+        <v>0.004803720397489027</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.327873306709</v>
+        <v>23.52144266666667</v>
       </c>
       <c r="H17">
-        <v>20.327873306709</v>
+        <v>70.564328</v>
       </c>
       <c r="I17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="J17">
-        <v>0.009678818827642125</v>
+        <v>0.01008349266740757</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.26941849565765</v>
+        <v>5.300086333333334</v>
       </c>
       <c r="N17">
-        <v>5.26941849565765</v>
+        <v>15.900259</v>
       </c>
       <c r="O17">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="P17">
-        <v>0.23243934029197</v>
+        <v>0.2073948981190463</v>
       </c>
       <c r="Q17">
-        <v>107.1160715797578</v>
+        <v>124.6656768178836</v>
       </c>
       <c r="R17">
-        <v>107.1160715797578</v>
+        <v>1121.991091360952</v>
       </c>
       <c r="S17">
-        <v>0.002249738263102634</v>
+        <v>0.002091264934441144</v>
       </c>
       <c r="T17">
-        <v>0.002249738263102634</v>
+        <v>0.002091264934441143</v>
       </c>
     </row>
   </sheetData>
